--- a/Copy of D2024 038711  Monthly Key Performance Indicator ( KPI ) Data for Customer Services 2024 25 - ~ July 2024 to June 2025.xlsx
+++ b/Copy of D2024 038711  Monthly Key Performance Indicator ( KPI ) Data for Customer Services 2024 25 - ~ July 2024 to June 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wannonwater.sharepoint.com/sites/PRJ-CXDataandAnalytics/Shared Documents/General/Existing reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\ESC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FC12B7-3908-4E41-8B88-3B3CB4798E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214EB3C-2524-4694-AC8D-D9E7EA0DEB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="558" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="930" windowWidth="16620" windowHeight="15345" tabRatio="558" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -47,6 +47,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={213CFF60-2C90-42BB-A249-F5647106CACF}</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{213CFF60-2C90-42BB-A249-F5647106CACF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Actually these figures are for 2023/24 and the water customer data comes from sts_result_run = 10818
+Reply:
+    10818 was run on 30/6/2024</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Steven Kearns</author>
@@ -2448,7 +2468,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4164,15 +4184,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -4195,12 +4206,21 @@
     <xf numFmtId="1" fontId="9" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4239,6 +4259,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrew Dilley" id="{0EDD75F7-43EF-495C-8303-2BECB1FEAB0B}" userId="S::andrew.dilley@wannonwater.com.au::92cd2a38-e077-4a02-b6a1-d31413bb5c7c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4526,6 +4552,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E6" dT="2025-06-06T03:14:04.69" personId="{0EDD75F7-43EF-495C-8303-2BECB1FEAB0B}" id="{213CFF60-2C90-42BB-A249-F5647106CACF}">
+    <text>Actually these figures are for 2023/24 and the water customer data comes from sts_result_run = 10818</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2025-06-06T03:15:01.07" personId="{0EDD75F7-43EF-495C-8303-2BECB1FEAB0B}" id="{AC5CDF01-03F0-4087-B65E-C9FBD28B9212}" parentId="{213CFF60-2C90-42BB-A249-F5647106CACF}">
+    <text>10818 was run on 30/6/2024</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -4533,14 +4570,14 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -4549,7 +4586,7 @@
     <col min="5" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -4568,7 +4605,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="18" t="s">
         <v>0</v>
@@ -4593,7 +4630,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="51"/>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="92" t="s">
         <v>3</v>
@@ -4614,7 +4651,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -4633,7 +4670,7 @@
       <c r="P4" s="53"/>
       <c r="Q4" s="53"/>
     </row>
-    <row r="5" spans="1:18" s="86" customFormat="1" ht="15">
+    <row r="5" spans="1:18" s="86" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="81" t="s">
         <v>4</v>
@@ -4695,7 +4732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="86" customFormat="1" ht="15">
+    <row r="6" spans="1:18" s="86" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="87"/>
       <c r="B6" s="88" t="s">
         <v>8</v>
@@ -4718,7 +4755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1">
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="56"/>
       <c r="C7" s="57" t="s">
@@ -4739,7 +4776,7 @@
       <c r="P7" s="64"/>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="65" t="s">
         <v>11</v>
@@ -4779,7 +4816,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="67"/>
       <c r="C9" s="225" t="s">
@@ -4817,7 +4854,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="65" t="s">
         <v>14</v>
@@ -4859,7 +4896,7 @@
         <v>14650</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="67"/>
       <c r="C11" s="68" t="s">
@@ -4899,7 +4936,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="65" t="s">
         <v>19</v>
@@ -4944,7 +4981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
@@ -4982,7 +5019,7 @@
         <v>32.887063655030801</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="65" t="s">
         <v>22</v>
@@ -5010,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
@@ -5034,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="72"/>
       <c r="C16" s="68"/>
@@ -5058,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="69" t="s">
         <v>27</v>
@@ -5084,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="69" t="s">
         <v>29</v>
@@ -5110,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="69" t="s">
         <v>31</v>
@@ -5136,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="69" t="s">
         <v>33</v>
@@ -5162,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="69" t="s">
         <v>35</v>
@@ -5188,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="69" t="s">
         <v>37</v>
@@ -5214,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30" customHeight="1">
+    <row r="23" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="74"/>
       <c r="C23" s="75" t="s">
@@ -5235,7 +5272,7 @@
       <c r="P23" s="234"/>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="179" t="s">
         <v>40</v>
@@ -5260,7 +5297,7 @@
       <c r="P24" s="181"/>
       <c r="Q24" s="172"/>
     </row>
-    <row r="25" spans="1:17" ht="15">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="173"/>
       <c r="C25" s="173" t="s">
@@ -5283,7 +5320,7 @@
       <c r="P25" s="175"/>
       <c r="Q25" s="172"/>
     </row>
-    <row r="26" spans="1:17" ht="15">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="176"/>
       <c r="C26" s="176"/>
@@ -5304,7 +5341,7 @@
       <c r="P26" s="178"/>
       <c r="Q26" s="172"/>
     </row>
-    <row r="27" spans="1:17" ht="15">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="72" t="s">
         <v>46</v>
@@ -5356,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="72"/>
       <c r="C28" s="73" t="s">
@@ -5406,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="67"/>
       <c r="C29" s="68"/>
@@ -5454,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="65" t="s">
         <v>49</v>
@@ -5506,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
@@ -5554,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="67"/>
       <c r="C32" s="68"/>
@@ -5602,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" customHeight="1">
+    <row r="33" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25" t="s">
@@ -5623,7 +5660,7 @@
       <c r="P33" s="79"/>
       <c r="Q33" s="60"/>
     </row>
-    <row r="34" spans="1:18" ht="15">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="28" t="s">
         <v>51</v>
@@ -5675,11 +5712,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="297" t="s">
+      <c r="D35" s="294" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="185">
@@ -5723,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="36" t="s">
         <v>55</v>
@@ -5775,13 +5812,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16.5" customHeight="1">
+    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="34"/>
       <c r="C37" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="297" t="s">
+      <c r="D37" s="294" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="185">
@@ -5825,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15">
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="36" t="s">
         <v>60</v>
@@ -5865,7 +5902,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15">
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="28"/>
       <c r="C39" s="207" t="s">
@@ -5903,7 +5940,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15">
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="28"/>
       <c r="C40" s="208" t="s">
@@ -5941,7 +5978,7 @@
         <v>22139</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15">
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="36" t="s">
         <v>64</v>
@@ -5967,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="36" t="s">
         <v>66</v>
@@ -5993,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15">
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="197"/>
       <c r="C43" s="208" t="s">
@@ -6017,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15">
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -6036,7 +6073,7 @@
       <c r="P44" s="47"/>
       <c r="Q44" s="79"/>
     </row>
-    <row r="45" spans="1:18" ht="15">
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -6055,13 +6092,13 @@
       <c r="P45" s="47"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="94"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="94"/>
     </row>
-    <row r="50" spans="5:11">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E50" s="171"/>
       <c r="K50" s="171"/>
     </row>
@@ -6075,14 +6112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -6092,7 +6129,7 @@
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -6100,7 +6137,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="18" t="str">
         <f>Summary!B2</f>
@@ -6117,7 +6154,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="91" t="s">
         <v>69</v>
@@ -6127,7 +6164,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="21"/>
       <c r="C4" s="17"/>
@@ -6135,7 +6172,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="42" t="s">
         <v>4</v>
@@ -6151,7 +6188,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="44" t="s">
         <v>8</v>
@@ -6164,7 +6201,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="s">
@@ -6174,7 +6211,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="28" t="s">
         <v>71</v>
@@ -6193,7 +6230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -6206,17 +6243,17 @@
       <c r="F9" s="48"/>
       <c r="H9" s="97"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
       <c r="D10" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="298"/>
+      <c r="E10" s="295"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="36" t="s">
         <v>76</v>
@@ -6232,19 +6269,19 @@
       </c>
       <c r="F11" s="48"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="297" t="s">
+      <c r="D12" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="299">
+      <c r="E12" s="296">
         <v>3791</v>
       </c>
       <c r="F12" s="48"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="36" t="s">
         <v>78</v>
@@ -6260,19 +6297,19 @@
       </c>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="297" t="s">
+      <c r="D14" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="299">
+      <c r="E14" s="296">
         <v>1082</v>
       </c>
       <c r="F14" s="48"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="28" t="s">
         <v>82</v>
@@ -6288,7 +6325,7 @@
       </c>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -6300,17 +6337,17 @@
       </c>
       <c r="F16" s="48"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="221" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="300"/>
+      <c r="E17" s="297"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25" t="s">
@@ -6321,7 +6358,7 @@
       <c r="F18" s="6"/>
       <c r="H18" s="97"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="28" t="s">
         <v>40</v>
@@ -6343,7 +6380,7 @@
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
@@ -6361,14 +6398,14 @@
       <c r="I20" s="97"/>
       <c r="J20" s="97"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
       <c r="D21" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="301">
+      <c r="E21" s="298">
         <v>86</v>
       </c>
       <c r="F21" s="6"/>
@@ -6377,7 +6414,7 @@
       <c r="I21" s="97"/>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="28" t="s">
         <v>51</v>
@@ -6394,11 +6431,11 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="297" t="s">
+      <c r="D23" s="294" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="212">
@@ -6407,7 +6444,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="36" t="s">
         <v>55</v>
@@ -6424,13 +6461,13 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="34"/>
       <c r="C25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="297" t="s">
+      <c r="D25" s="294" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="212">
@@ -6439,7 +6476,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="36" t="s">
         <v>60</v>
@@ -6454,7 +6491,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="28"/>
       <c r="C27" s="207" t="s">
@@ -6467,7 +6504,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="28"/>
       <c r="C28" s="208" t="s">
@@ -6480,7 +6517,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="36" t="s">
         <v>64</v>
@@ -6495,7 +6532,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="36" t="s">
         <v>66</v>
@@ -6512,7 +6549,7 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="217"/>
       <c r="C31" s="218" t="s">
@@ -6527,7 +6564,7 @@
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="219"/>
       <c r="C32" s="220"/>
@@ -6540,7 +6577,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1">
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="230"/>
       <c r="C33" s="231" t="s">
@@ -6550,7 +6587,7 @@
       <c r="E33" s="233"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="36" t="s">
         <v>91</v>
@@ -6569,14 +6606,14 @@
       </c>
       <c r="I34" s="97"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="297"/>
-      <c r="E35" s="302">
+      <c r="D35" s="294"/>
+      <c r="E35" s="299">
         <v>37700</v>
       </c>
       <c r="F35" s="6"/>
@@ -6584,7 +6621,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="97"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -6593,7 +6630,7 @@
       <c r="F36" s="6"/>
       <c r="H36" s="232"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H37" s="97"/>
     </row>
   </sheetData>
@@ -6602,6 +6639,7 @@
   <ignoredErrors>
     <ignoredError sqref="E29 E22:E25 E26:E28 E30:E32" unlockedFormula="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6613,13 +6651,13 @@
   <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T41" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="V51" sqref="V51"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6637,7 +6675,7 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="161"/>
       <c r="B1" s="98" t="s">
         <v>95</v>
@@ -6752,7 +6790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="161"/>
       <c r="B2" s="143" t="s">
         <v>116</v>
@@ -6763,10 +6801,10 @@
       <c r="D2" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="295" t="s">
+      <c r="E2" s="301" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="295">
+      <c r="F2" s="301">
         <v>39760</v>
       </c>
       <c r="G2" s="145">
@@ -6868,7 +6906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="161"/>
       <c r="B3" s="121"/>
       <c r="C3" s="122" t="s">
@@ -6877,8 +6915,8 @@
       <c r="D3" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
       <c r="G3" s="123">
         <v>6322</v>
       </c>
@@ -6978,7 +7016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="161"/>
       <c r="B4" s="161"/>
       <c r="C4" s="161"/>
@@ -7012,7 +7050,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="161"/>
       <c r="B5" s="98" t="s">
         <v>128</v>
@@ -7114,7 +7152,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="161"/>
       <c r="B6" s="102" t="s">
         <v>129</v>
@@ -7193,7 +7231,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="161"/>
       <c r="B7" s="108"/>
       <c r="C7" s="109" t="s">
@@ -7270,7 +7308,7 @@
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="161"/>
       <c r="B8" s="116" t="s">
         <v>116</v>
@@ -7403,7 +7441,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="161"/>
       <c r="B9" s="121"/>
       <c r="C9" s="122" t="s">
@@ -7513,7 +7551,7 @@
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="161"/>
       <c r="B10" s="161"/>
       <c r="C10" s="161"/>
@@ -7540,7 +7578,7 @@
       <c r="X10" s="162"/>
       <c r="Y10" s="128"/>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="161"/>
       <c r="B11" s="98" t="s">
         <v>147</v>
@@ -7640,7 +7678,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="161"/>
       <c r="B12" s="102" t="s">
         <v>129</v>
@@ -7717,7 +7755,7 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="161"/>
       <c r="B13" s="108"/>
       <c r="C13" s="109" t="s">
@@ -7792,7 +7830,7 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="161"/>
       <c r="B14" s="116" t="s">
         <v>116</v>
@@ -7925,7 +7963,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="161"/>
       <c r="B15" s="121"/>
       <c r="C15" s="122" t="s">
@@ -8056,7 +8094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="161"/>
       <c r="B16" s="161"/>
       <c r="C16" s="161"/>
@@ -8083,7 +8121,7 @@
       <c r="X16" s="162"/>
       <c r="Y16" s="128"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="161"/>
       <c r="B17" s="98" t="s">
         <v>166</v>
@@ -8185,7 +8223,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="161"/>
       <c r="B18" s="102" t="s">
         <v>129</v>
@@ -8264,7 +8302,7 @@
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="161"/>
       <c r="B19" s="102"/>
       <c r="C19" s="103" t="s">
@@ -8341,7 +8379,7 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="161"/>
       <c r="B20" s="108"/>
       <c r="C20" s="109" t="s">
@@ -8416,7 +8454,7 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="161"/>
       <c r="B21" s="116" t="s">
         <v>116</v>
@@ -8549,7 +8587,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="161"/>
       <c r="B22" s="121"/>
       <c r="C22" s="122" t="s">
@@ -8659,7 +8697,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="161"/>
       <c r="B23" s="168"/>
       <c r="C23" s="168"/>
@@ -8695,7 +8733,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="161"/>
       <c r="B24" s="98" t="s">
         <v>182</v>
@@ -8788,7 +8826,7 @@
       </c>
       <c r="Y24" s="163"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="161"/>
       <c r="B25" s="102" t="s">
         <v>129</v>
@@ -8858,7 +8896,7 @@
       </c>
       <c r="Y25" s="129"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="161"/>
       <c r="B26" s="108"/>
       <c r="C26" s="109" t="s">
@@ -8926,7 +8964,7 @@
       </c>
       <c r="Y26" s="129"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="161"/>
       <c r="B27" s="116" t="s">
         <v>116</v>
@@ -9038,7 +9076,7 @@
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="161"/>
       <c r="B28" s="121"/>
       <c r="C28" s="122" t="s">
@@ -9148,7 +9186,7 @@
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="161"/>
       <c r="B29" s="161"/>
       <c r="C29" s="161"/>
@@ -9182,7 +9220,7 @@
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="161"/>
       <c r="B30" s="98" t="s">
         <v>189</v>
@@ -9284,7 +9322,7 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="161"/>
       <c r="B31" s="102" t="s">
         <v>129</v>
@@ -9363,7 +9401,7 @@
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="161"/>
       <c r="B32" s="102"/>
       <c r="C32" s="103" t="s">
@@ -9440,7 +9478,7 @@
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="161"/>
       <c r="B33" s="108"/>
       <c r="C33" s="109" t="s">
@@ -9517,7 +9555,7 @@
       <c r="AG33" s="11"/>
       <c r="AH33" s="11"/>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="161"/>
       <c r="B34" s="116" t="s">
         <v>116</v>
@@ -9650,7 +9688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="161"/>
       <c r="B35" s="121"/>
       <c r="C35" s="122" t="s">
@@ -9760,7 +9798,7 @@
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="161"/>
       <c r="B36" s="161"/>
       <c r="C36" s="161"/>
@@ -9787,7 +9825,7 @@
       <c r="X36" s="162"/>
       <c r="Y36" s="128"/>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="161"/>
       <c r="B37" s="98" t="s">
         <v>202</v>
@@ -9887,7 +9925,7 @@
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="161"/>
       <c r="B38" s="116" t="s">
         <v>116</v>
@@ -9982,7 +10020,7 @@
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="161"/>
       <c r="B39" s="121"/>
       <c r="C39" s="122" t="s">
@@ -10075,7 +10113,7 @@
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="161"/>
       <c r="B40" s="161"/>
       <c r="C40" s="161"/>
@@ -10102,7 +10140,7 @@
       <c r="X40" s="162"/>
       <c r="Y40" s="128"/>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="161"/>
       <c r="B41" s="98" t="s">
         <v>206</v>
@@ -10195,7 +10233,7 @@
       </c>
       <c r="Y41" s="163"/>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="161"/>
       <c r="B42" s="102" t="s">
         <v>129</v>
@@ -10274,7 +10312,7 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="161"/>
       <c r="B43" s="108"/>
       <c r="C43" s="109" t="s">
@@ -10351,7 +10389,7 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="161"/>
       <c r="B44" s="116" t="s">
         <v>116</v>
@@ -10463,7 +10501,7 @@
       <c r="AG44" s="9"/>
       <c r="AH44" s="9"/>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="161"/>
       <c r="B45" s="121"/>
       <c r="C45" s="122" t="s">
@@ -10560,7 +10598,7 @@
       </c>
       <c r="AH45" s="10"/>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="161"/>
       <c r="B46" s="161"/>
       <c r="C46" s="161"/>
@@ -10594,7 +10632,7 @@
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="161"/>
       <c r="B47" s="98" t="s">
         <v>224</v>
@@ -10664,7 +10702,7 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="161"/>
       <c r="B48" s="102" t="s">
         <v>129</v>
@@ -10725,7 +10763,7 @@
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="161"/>
       <c r="B49" s="108"/>
       <c r="C49" s="109" t="s">
@@ -10784,7 +10822,7 @@
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="161"/>
       <c r="B50" s="116" t="s">
         <v>116</v>
@@ -10854,7 +10892,7 @@
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="161"/>
       <c r="B51" s="121"/>
       <c r="C51" s="122" t="s">
@@ -10913,7 +10951,7 @@
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="161"/>
       <c r="B52" s="161"/>
       <c r="C52" s="161"/>
@@ -10947,7 +10985,7 @@
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="161"/>
       <c r="B53" s="98" t="s">
         <v>225</v>
@@ -11026,7 +11064,7 @@
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="161"/>
       <c r="B54" s="108" t="s">
         <v>129</v>
@@ -11093,7 +11131,7 @@
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="161"/>
       <c r="B55" s="153" t="s">
         <v>116</v>
@@ -11164,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="Y55" s="165"/>
-      <c r="Z55" s="294" t="s">
+      <c r="Z55" s="300" t="s">
         <v>226</v>
       </c>
-      <c r="AA55" s="294"/>
+      <c r="AA55" s="300"/>
       <c r="AB55" s="11" t="s">
         <v>180</v>
       </c>
@@ -11184,7 +11222,7 @@
       <c r="AG55" s="11"/>
       <c r="AH55" s="11"/>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="161"/>
       <c r="B56" s="161"/>
       <c r="C56" s="161"/>
@@ -11211,7 +11249,7 @@
       <c r="X56" s="162"/>
       <c r="Y56" s="128"/>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="161"/>
       <c r="B57" s="98" t="s">
         <v>227</v>
@@ -11311,7 +11349,7 @@
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="161"/>
       <c r="B58" s="108" t="s">
         <v>129</v>
@@ -11388,7 +11426,7 @@
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="161"/>
       <c r="B59" s="153" t="s">
         <v>116</v>
@@ -11521,7 +11559,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="161"/>
       <c r="B60" s="161"/>
       <c r="C60" s="161"/>
@@ -11555,7 +11593,7 @@
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="161"/>
       <c r="B61" s="98" t="s">
         <v>240</v>
@@ -11646,7 +11684,7 @@
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="161"/>
       <c r="B62" s="102" t="s">
         <v>129</v>
@@ -11741,7 +11779,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="161"/>
       <c r="B63" s="108"/>
       <c r="C63" s="109" t="s">
@@ -11818,7 +11856,7 @@
       <c r="AG63" s="9"/>
       <c r="AH63" s="9"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="161"/>
       <c r="B64" s="116" t="s">
         <v>116</v>
@@ -11939,7 +11977,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="161"/>
       <c r="B65" s="121"/>
       <c r="C65" s="122" t="s">
@@ -12061,7 +12099,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="161"/>
       <c r="B66" s="161"/>
       <c r="C66" s="161"/>
@@ -12088,7 +12126,7 @@
       <c r="X66" s="162"/>
       <c r="Y66" s="128"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B67" s="134" t="s">
         <v>240</v>
       </c>
@@ -12162,7 +12200,7 @@
       <c r="X67" s="199"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B68" s="137" t="s">
         <v>251</v>
       </c>
@@ -12222,7 +12260,7 @@
       <c r="X68" s="200"/>
       <c r="Y68" s="15"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B69" s="140"/>
       <c r="C69" s="141" t="s">
         <v>247</v>
@@ -12280,7 +12318,7 @@
       <c r="X69" s="201"/>
       <c r="Y69" s="15"/>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -12296,7 +12334,7 @@
       <c r="S70" s="14"/>
       <c r="T70" s="14"/>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C71" s="235" t="s">
         <v>252</v>
       </c>
@@ -12372,7 +12410,7 @@
       </c>
       <c r="X71" s="237"/>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C72" s="116" t="s">
         <v>253</v>
       </c>
@@ -12431,7 +12469,7 @@
       <c r="AL72" s="14"/>
       <c r="AM72" s="14"/>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C73" s="143" t="s">
         <v>254</v>
       </c>
@@ -12468,7 +12506,7 @@
       <c r="AL73" s="14"/>
       <c r="AM73" s="14"/>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C74" s="143" t="s">
         <v>255</v>
       </c>
@@ -12533,7 +12571,7 @@
       <c r="AL74" s="14"/>
       <c r="AM74" s="14"/>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C75" s="143" t="s">
         <v>256</v>
       </c>
@@ -12598,7 +12636,7 @@
       <c r="AL75" s="14"/>
       <c r="AM75" s="14"/>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C76" s="143" t="s">
         <v>257</v>
       </c>
@@ -12663,7 +12701,7 @@
       <c r="AL76" s="14"/>
       <c r="AM76" s="14"/>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C77" s="143" t="s">
         <v>258</v>
       </c>
@@ -12728,7 +12766,7 @@
       <c r="AL77" s="14"/>
       <c r="AM77" s="14"/>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C78" s="143" t="s">
         <v>259</v>
       </c>
@@ -12793,7 +12831,7 @@
       <c r="AL78" s="14"/>
       <c r="AM78" s="14"/>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C79" s="143" t="s">
         <v>260</v>
       </c>
@@ -12858,7 +12896,7 @@
       <c r="AL79" s="14"/>
       <c r="AM79" s="14"/>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C80" s="143" t="s">
         <v>261</v>
       </c>
@@ -12923,7 +12961,7 @@
       <c r="AL80" s="14"/>
       <c r="AM80" s="14"/>
     </row>
-    <row r="81" spans="3:39">
+    <row r="81" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C81" s="143" t="s">
         <v>262</v>
       </c>
@@ -12988,7 +13026,7 @@
       <c r="AL81" s="14"/>
       <c r="AM81" s="14"/>
     </row>
-    <row r="82" spans="3:39">
+    <row r="82" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C82" s="143" t="s">
         <v>263</v>
       </c>
@@ -13053,7 +13091,7 @@
       <c r="AL82" s="14"/>
       <c r="AM82" s="14"/>
     </row>
-    <row r="83" spans="3:39">
+    <row r="83" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C83" s="143" t="s">
         <v>264</v>
       </c>
@@ -13118,7 +13156,7 @@
       <c r="AL83" s="14"/>
       <c r="AM83" s="14"/>
     </row>
-    <row r="84" spans="3:39">
+    <row r="84" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C84" s="143" t="s">
         <v>265</v>
       </c>
@@ -13183,7 +13221,7 @@
       <c r="AL84" s="14"/>
       <c r="AM84" s="14"/>
     </row>
-    <row r="85" spans="3:39">
+    <row r="85" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C85" s="143" t="s">
         <v>266</v>
       </c>
@@ -13248,7 +13286,7 @@
       <c r="AL85" s="14"/>
       <c r="AM85" s="14"/>
     </row>
-    <row r="86" spans="3:39">
+    <row r="86" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C86" s="143" t="s">
         <v>267</v>
       </c>
@@ -13313,7 +13351,7 @@
       <c r="AL86" s="14"/>
       <c r="AM86" s="14"/>
     </row>
-    <row r="87" spans="3:39">
+    <row r="87" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C87" s="143" t="s">
         <v>268</v>
       </c>
@@ -13372,7 +13410,7 @@
       <c r="AL87" s="14"/>
       <c r="AM87" s="14"/>
     </row>
-    <row r="88" spans="3:39">
+    <row r="88" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C88" s="121" t="s">
         <v>269</v>
       </c>
@@ -13437,7 +13475,7 @@
       <c r="AL88" s="14"/>
       <c r="AM88" s="14"/>
     </row>
-    <row r="89" spans="3:39">
+    <row r="89" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C89" s="242" t="s">
         <v>162</v>
       </c>
@@ -13497,7 +13535,7 @@
       </c>
       <c r="X89" s="245"/>
     </row>
-    <row r="90" spans="3:39">
+    <row r="90" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C90" s="265" t="s">
         <v>270</v>
       </c>
@@ -13574,7 +13612,7 @@
       </c>
       <c r="X90" s="267"/>
     </row>
-    <row r="91" spans="3:39">
+    <row r="91" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C91" s="246" t="s">
         <v>271</v>
       </c>
@@ -13651,7 +13689,7 @@
       </c>
       <c r="X91" s="238"/>
     </row>
-    <row r="92" spans="3:39">
+    <row r="92" spans="3:39" x14ac:dyDescent="0.25">
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -13662,7 +13700,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="3:39">
+    <row r="93" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C93" s="235" t="s">
         <v>272</v>
       </c>
@@ -13738,7 +13776,7 @@
       </c>
       <c r="X93" s="237"/>
     </row>
-    <row r="94" spans="3:39">
+    <row r="94" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C94" s="116" t="s">
         <v>253</v>
       </c>
@@ -13792,7 +13830,7 @@
       <c r="W94" s="264"/>
       <c r="X94" s="254"/>
     </row>
-    <row r="95" spans="3:39">
+    <row r="95" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C95" s="143" t="s">
         <v>254</v>
       </c>
@@ -13824,7 +13862,7 @@
       </c>
       <c r="X95" s="255"/>
     </row>
-    <row r="96" spans="3:39">
+    <row r="96" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C96" s="143" t="s">
         <v>255</v>
       </c>
@@ -13884,7 +13922,7 @@
       </c>
       <c r="X96" s="255"/>
     </row>
-    <row r="97" spans="3:24">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C97" s="143" t="s">
         <v>256</v>
       </c>
@@ -13944,7 +13982,7 @@
       </c>
       <c r="X97" s="255"/>
     </row>
-    <row r="98" spans="3:24">
+    <row r="98" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C98" s="143" t="s">
         <v>257</v>
       </c>
@@ -14004,7 +14042,7 @@
       </c>
       <c r="X98" s="255"/>
     </row>
-    <row r="99" spans="3:24">
+    <row r="99" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C99" s="143" t="s">
         <v>258</v>
       </c>
@@ -14064,7 +14102,7 @@
       </c>
       <c r="X99" s="255"/>
     </row>
-    <row r="100" spans="3:24">
+    <row r="100" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C100" s="143" t="s">
         <v>259</v>
       </c>
@@ -14124,7 +14162,7 @@
       </c>
       <c r="X100" s="255"/>
     </row>
-    <row r="101" spans="3:24">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C101" s="143" t="s">
         <v>260</v>
       </c>
@@ -14184,7 +14222,7 @@
       </c>
       <c r="X101" s="255"/>
     </row>
-    <row r="102" spans="3:24">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C102" s="143" t="s">
         <v>261</v>
       </c>
@@ -14244,7 +14282,7 @@
       </c>
       <c r="X102" s="255"/>
     </row>
-    <row r="103" spans="3:24">
+    <row r="103" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C103" s="143" t="s">
         <v>262</v>
       </c>
@@ -14304,7 +14342,7 @@
       </c>
       <c r="X103" s="255"/>
     </row>
-    <row r="104" spans="3:24">
+    <row r="104" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C104" s="143" t="s">
         <v>263</v>
       </c>
@@ -14364,7 +14402,7 @@
       </c>
       <c r="X104" s="255"/>
     </row>
-    <row r="105" spans="3:24">
+    <row r="105" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C105" s="143" t="s">
         <v>264</v>
       </c>
@@ -14424,7 +14462,7 @@
       </c>
       <c r="X105" s="255"/>
     </row>
-    <row r="106" spans="3:24">
+    <row r="106" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C106" s="143" t="s">
         <v>265</v>
       </c>
@@ -14484,7 +14522,7 @@
       </c>
       <c r="X106" s="255"/>
     </row>
-    <row r="107" spans="3:24">
+    <row r="107" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C107" s="143" t="s">
         <v>266</v>
       </c>
@@ -14544,7 +14582,7 @@
       </c>
       <c r="X107" s="255"/>
     </row>
-    <row r="108" spans="3:24">
+    <row r="108" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C108" s="143" t="s">
         <v>267</v>
       </c>
@@ -14604,7 +14642,7 @@
       </c>
       <c r="X108" s="255"/>
     </row>
-    <row r="109" spans="3:24">
+    <row r="109" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C109" s="143" t="s">
         <v>268</v>
       </c>
@@ -14658,7 +14696,7 @@
       <c r="W109" s="262"/>
       <c r="X109" s="255"/>
     </row>
-    <row r="110" spans="3:24">
+    <row r="110" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C110" s="121" t="s">
         <v>269</v>
       </c>
@@ -14718,7 +14756,7 @@
       </c>
       <c r="X110" s="257"/>
     </row>
-    <row r="111" spans="3:24">
+    <row r="111" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C111" s="242" t="s">
         <v>162</v>
       </c>
@@ -14786,7 +14824,7 @@
       </c>
       <c r="X111" s="259"/>
     </row>
-    <row r="112" spans="3:24">
+    <row r="112" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C112" s="265" t="s">
         <v>270</v>
       </c>
@@ -14863,7 +14901,7 @@
       </c>
       <c r="X112" s="267"/>
     </row>
-    <row r="113" spans="3:24">
+    <row r="113" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C113" s="246" t="s">
         <v>271</v>
       </c>
@@ -15263,13 +15301,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{235E0ED6-17D5-4E80-8F02-C7C49C9CDDC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{235E0ED6-17D5-4E80-8F02-C7C49C9CDDC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1AD776E-E752-4FF0-B8DF-58553FB49BBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1AD776E-E752-4FF0-B8DF-58553FB49BBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E290DF26-5A43-49C3-9931-6C5F2847FDBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E290DF26-5A43-49C3-9931-6C5F2847FDBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fb8d779-200e-43b4-bf7c-8825801dec93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>